--- a/data/case1/15/V2_14.xlsx
+++ b/data/case1/15/V2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.9999999882559063</v>
+        <v>0.99999999706412279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99833337049679427</v>
+        <v>0.99776509643768041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99470648192483124</v>
+        <v>0.99527213430868566</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99947712221045237</v>
+        <v>1.0007870180457681</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.99117142403540026</v>
+        <v>0.99325365079342465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.97140314637059411</v>
+        <v>0.97552217496641414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96904475842267124</v>
+        <v>0.97070409955833004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96640346727398041</v>
+        <v>0.96528693306256841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.96577589594882884</v>
+        <v>0.95942533995366253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.96610178664056623</v>
+        <v>0.95449174875873943</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.96627108086080293</v>
+        <v>0.95390021194060837</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.96685003988900009</v>
+        <v>0.95303065587640035</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.97164729378801562</v>
+        <v>0.95033960705251452</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.97465800596691987</v>
+        <v>0.95030795386674805</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.97879291920964073</v>
+        <v>0.95136319711425954</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9842657554075116</v>
+        <v>0.95305324530841484</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.98055849610358004</v>
+        <v>0.94934558777402533</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.97944964394448808</v>
+        <v>0.94823667362179465</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99654480723116579</v>
+        <v>0.99417484375844256</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98942815887263125</v>
+        <v>0.96466130303983588</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98802973672983918</v>
+        <v>0.96326276768106267</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98676524993695613</v>
+        <v>0.96199825039250009</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98558821330388802</v>
+        <v>0.98630730615018636</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96827221663947305</v>
+        <v>0.96933781588546331</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96181530300640372</v>
+        <v>0.9628808617129796</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.968819254341029</v>
+        <v>0.9742483594511806</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9654654507158571</v>
+        <v>0.97272422564491956</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.95133748712779787</v>
+        <v>0.96712288070173469</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94150720047937186</v>
+        <v>0.96367456493388048</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93748547410362248</v>
+        <v>0.96285423015369187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93684456452931619</v>
+        <v>0.95520200370661279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93389606282486815</v>
+        <v>0.95352270838591213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93337607761958652</v>
+        <v>0.95300269184011088</v>
       </c>
     </row>
   </sheetData>
